--- a/TestsAndDemos/Etk.Tests.Templates.ExcelDna1/Etk.Tests.Templates.ExcelDna1.xlsx
+++ b/TestsAndDemos/Etk.Tests.Templates.ExcelDna1/Etk.Tests.Templates.ExcelDna1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Etk-git\TestsAndDemos\Tests\Etk.Tests.Templates.ExcelDna1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Etk-git\TestsAndDemos\Etk.Tests.Templates.ExcelDna1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8040" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="4" r:id="rId1"/>
@@ -342,9 +342,6 @@
     <t>{R:Product.Id}</t>
   </si>
   <si>
-    <t>&lt;Link To='ShopCustomers' With='GetCustomers' /&gt;</t>
-  </si>
-  <si>
     <t>&lt;Template Name='ShopCustomers'  BindingWith='Customer'/&gt;</t>
   </si>
   <si>
@@ -459,9 +456,6 @@
     <t>Template with only a linked template</t>
   </si>
   <si>
-    <t>&lt;Link To='Products' With='GetAllProducts' /&gt;</t>
-  </si>
-  <si>
     <t>&lt;Template Name='Products' BindingWith='Product' /&gt;</t>
   </si>
   <si>
@@ -568,6 +562,12 @@
   </si>
   <si>
     <t>{TestEnum}</t>
+  </si>
+  <si>
+    <t>&lt;Link To='Products' With='Products' /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Link To='ShopCustomers' With='Customers' /&gt;</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="N2:O2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1625,10 +1625,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -1637,30 +1637,30 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="29" t="s">
+      <c r="D6" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="24" t="s">
         <v>80</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -1668,54 +1668,54 @@
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" s="28"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E13" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="25" t="s">
-        <v>97</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -1723,49 +1723,49 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="36" t="s">
         <v>92</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B25" s="41"/>
       <c r="C25" s="41"/>
@@ -1785,15 +1785,15 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2068,8 +2068,8 @@
   </sheetPr>
   <dimension ref="A3:Q73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD6"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2085,7 +2085,7 @@
   <sheetData>
     <row r="3" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -2272,7 +2272,7 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
@@ -2306,12 +2306,12 @@
       <c r="D21" s="64"/>
       <c r="E21" s="65"/>
       <c r="F21" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" s="61"/>
       <c r="C27" s="61"/>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="15"/>
@@ -2366,10 +2366,10 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="4" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="60" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B32" s="61"/>
       <c r="C32" s="61"/>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B33" s="63" t="s">
         <v>37</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B36" s="66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="67"/>
       <c r="D36" s="67"/>
@@ -2491,13 +2491,13 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B40" s="61"/>
       <c r="C40" s="61"/>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2567,13 +2567,13 @@
         <v>54</v>
       </c>
       <c r="C42" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2638,7 +2638,7 @@
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B47" s="17"/>
       <c r="C47" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47" s="19" t="s">
         <v>44</v>
@@ -2661,7 +2661,7 @@
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K48" s="4"/>
     </row>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2738,12 +2738,12 @@
         <v>62</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2760,10 +2760,10 @@
         <v>59</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2847,7 +2847,7 @@
   </sheetPr>
   <dimension ref="A2:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:O6"/>
     </sheetView>
   </sheetViews>
@@ -2855,7 +2855,7 @@
   <sheetData>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
@@ -2895,54 +2895,54 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="N6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
